--- a/joshua-docs/02_design/90_db/91_列挙一覧.xlsx
+++ b/joshua-docs/02_design/90_db/91_列挙一覧.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\joshua-app\git\joshua\joshua-docs\02_design\90_db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C457E836-88DE-48F6-9A8D-D38C3B3710B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9502FD29-7A5D-4428-A2EC-12C7162BFAF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="2085" windowWidth="18060" windowHeight="11085" activeTab="2" xr2:uid="{A569102F-E40C-4D41-A03F-4D5CBAE66DF9}"/>
+    <workbookView xWindow="3930" yWindow="2475" windowWidth="17055" windowHeight="14550" activeTab="3" xr2:uid="{A569102F-E40C-4D41-A03F-4D5CBAE66DF9}"/>
   </bookViews>
   <sheets>
     <sheet name="WorkAuthStatus" sheetId="4" r:id="rId1"/>
     <sheet name="Weekday" sheetId="2" r:id="rId2"/>
     <sheet name="BusinessFlg" sheetId="5" r:id="rId3"/>
-    <sheet name="TestFlg" sheetId="3" r:id="rId4"/>
+    <sheet name="AppAuth" sheetId="3" r:id="rId4"/>
     <sheet name="TEMPLATE" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="57">
   <si>
     <t>Package</t>
     <phoneticPr fontId="1"/>
@@ -207,11 +207,75 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TestFlg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BusinessFlg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アプリの権限の列挙型</t>
+    <rPh sb="4" eb="6">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AppAuth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>管理者権限</t>
+    <rPh sb="0" eb="2">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経理権限</t>
+    <rPh sb="0" eb="2">
+      <t>ケイリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一般権限</t>
+    <rPh sb="0" eb="2">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ADMIN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACCOUNTING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COMMON</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -830,7 +894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30474B9E-F213-4366-9FBD-4093D469194F}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -855,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -908,10 +972,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA611B4D-E8A9-4177-9AA7-1C5141AA82BD}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -935,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -943,7 +1007,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -959,24 +1023,35 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
